--- a/03-01-26 to 03-07-26 Madison Schedule.xlsx
+++ b/03-01-26 to 03-07-26 Madison Schedule.xlsx
@@ -696,7 +696,7 @@
 BUSINESS CASUAL 
 (JEANS NOT RECOMMENDED)
 ADULTS ONLY
-5:00 PM - DOOR OPEN / DRINKS
+5:00 PM - DOORS OPEN / DRINKS
 6:30 PM - DINNER
 7:30 PM - ANNIVERSARY AWARDS / PROGRAM</t>
         </is>

--- a/03-01-26 to 03-07-26 Madison Schedule.xlsx
+++ b/03-01-26 to 03-07-26 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y68"/>
+  <dimension ref="A1:Y67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Charletta</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -2816,7 +2816,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3064,21 +3064,9 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
@@ -3131,7 +3119,11 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
@@ -3164,7 +3156,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3199,7 +3191,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #22, N MAIN MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3234,7 +3226,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>KELLEY #22, N MAIN MOBIL, ROCKFORD</t>
+          <t>3338 N MAIN ST</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3269,7 +3261,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>3338 N MAIN ST</t>
+          <t>https://goo.gl/maps/PPgMB73RP522</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3304,7 +3296,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/PPgMB73RP522</t>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3337,11 +3329,7 @@
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
-        </is>
-      </c>
+      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
@@ -3367,9 +3355,21 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
@@ -3408,19 +3408,15 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Amy</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
@@ -3455,12 +3451,12 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Amy</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -3498,12 +3494,12 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -3541,12 +3537,12 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -3584,12 +3580,12 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="S66" t="inlineStr"/>
@@ -3627,12 +3623,12 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="S67" t="inlineStr"/>
@@ -3643,41 +3639,6 @@
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr"/>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/03-01-26 to 03-07-26 Madison Schedule.xlsx
+++ b/03-01-26 to 03-07-26 Madison Schedule.xlsx
@@ -2434,7 +2434,11 @@
       </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Jerry D may be available after his Aurora site.  He will call to see if he's needed</t>
+        </is>
+      </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
@@ -2468,21 +2472,9 @@
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>Bri</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
@@ -2533,17 +2525,17 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Andrew</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
@@ -2593,12 +2585,12 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -2657,12 +2649,12 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -2712,12 +2704,12 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -2759,12 +2751,12 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -2811,12 +2803,12 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -2862,12 +2854,12 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -2913,12 +2905,12 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -2964,12 +2956,12 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -3015,12 +3007,12 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3064,9 +3056,21 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
@@ -3119,11 +3123,7 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
@@ -3156,7 +3156,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3191,7 +3191,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>KELLEY #22, N MAIN MOBIL, ROCKFORD</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3226,7 +3226,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>3338 N MAIN ST</t>
+          <t>KELLEY #22, N MAIN MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3261,7 +3261,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/PPgMB73RP522</t>
+          <t>3338 N MAIN ST</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3296,7 +3296,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+          <t>https://goo.gl/maps/PPgMB73RP522</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3329,7 +3329,11 @@
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+        </is>
+      </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
@@ -3355,21 +3359,9 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
@@ -3408,15 +3400,19 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Amy</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
@@ -3451,7 +3447,7 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -3494,7 +3490,7 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -3537,7 +3533,7 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -3580,7 +3576,7 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -3623,7 +3619,7 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">

--- a/03-01-26 to 03-07-26 Madison Schedule.xlsx
+++ b/03-01-26 to 03-07-26 Madison Schedule.xlsx
@@ -1393,7 +1393,8 @@
       <c r="O20" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Silver Van</t>
+Silver Van,
+Supv Rx</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
@@ -1710,7 +1711,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -1778,7 +1779,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -1850,13 +1851,12 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
